--- a/Documentação/Requisitos/requisitos.xlsx
+++ b/Documentação/Requisitos/requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digital Solutions\Desktop\ShadowTech\Documentação\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B952EF84-0857-4481-A76A-2B448960C370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75501AC-A82D-426C-9FE0-0422036D2920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{F0F20B02-A09F-4FB0-A8DF-B5AA3D8F1155}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0F20B02-A09F-4FB0-A8DF-B5AA3D8F1155}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog Site ShadowTech" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -69,9 +69,6 @@
     <t>1.2.3</t>
   </si>
   <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
     <t>1.3</t>
   </si>
   <si>
@@ -108,26 +105,113 @@
     <t>A aplicação deverá mostrar os processos que mais consomen banda.</t>
   </si>
   <si>
-    <t>A aplicação deverá identificar o usuário na rede.</t>
-  </si>
-  <si>
-    <t>A aplicação deverá realizar a aquisição dos dados do free radius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A aplicação devera gerar </t>
-  </si>
-  <si>
     <t>A rede deverá fazer a validação free radius.</t>
   </si>
   <si>
     <t>Aplicação web</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>A aplicação deve ser um executável.</t>
+  </si>
+  <si>
+    <t>A aplicação deve ser feita em Java.</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Deverá ter uma tela inicial com apresentação da empresa</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Deverá fazer cadastro de usuários</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Deverá fazer login de usuários.</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>Deverá conter a descrição do produto.</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>Deverá mostrar os integrantes da equipe.</t>
+  </si>
+  <si>
+    <t>Deverá ter os meios de contato.</t>
+  </si>
+  <si>
+    <t>Deverá ter a localização da empresa.</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>A aplicação deverá gerar gráficos de monitoramento de processos</t>
+  </si>
+  <si>
+    <t>A aplicação deverá gerar gráficos de históricos de ocorridos.</t>
+  </si>
+  <si>
+    <t>A aplicação deverá realizar a aquisição dos dados do banco.</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>A aplicação deverá gerar gráficos</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>A aplicação deverá ter um sistema de abertura de chamados.</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>A aplicação deverá ter um sistema de alertas.</t>
+  </si>
+  <si>
+    <t>A aplicação deverá ter um sistema de alertas de falhas nas máquinas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +267,18 @@
       <b/>
       <sz val="10"/>
       <name val="Exo 2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -272,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -311,7 +407,15 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,11 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B6C25A-A5EC-4569-A201-62FA02B8C7B9}">
-  <dimension ref="B2:G143"/>
+  <dimension ref="B2:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="11" customFormat="1" ht="15.75">
@@ -669,8 +773,8 @@
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="10" t="s">
-        <v>14</v>
+      <c r="D3" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -682,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -694,19 +798,19 @@
         <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="2:7" ht="25.5">
+    <row r="6" spans="2:7" ht="15.75">
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
@@ -717,8 +821,8 @@
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>21</v>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
@@ -730,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
@@ -742,7 +846,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
@@ -754,19 +858,19 @@
         <v>10</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="2:7" ht="25.5">
+    <row r="11" spans="2:7" ht="15.75">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
@@ -775,7 +879,7 @@
     <row r="12" spans="2:7" ht="15.75">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>26</v>
@@ -785,98 +889,144 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7" ht="15.75">
-      <c r="B13" s="6"/>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:7" ht="15.75">
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:7" ht="15.75">
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7" ht="15.75">
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" ht="15.75">
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" ht="15.75">
       <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" ht="15.75">
       <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="8"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" ht="15.75">
       <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75">
+    <row r="22" spans="2:7" ht="25.5">
       <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" ht="15.75">
       <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7" ht="15.75">
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="10" t="s">
-        <v>20</v>
+      <c r="C24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
@@ -884,9 +1034,11 @@
     </row>
     <row r="25" spans="2:7" ht="15.75">
       <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D25" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -894,41 +1046,51 @@
     </row>
     <row r="26" spans="2:7" ht="15.75">
       <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="D26" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75">
+    <row r="27" spans="2:7" ht="25.5">
       <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="D27" s="8" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="2:7" ht="15.75">
-      <c r="B28" s="6"/>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="2:7" s="11" customFormat="1" ht="15.75">
+      <c r="D28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75">
       <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="C29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:7" ht="15.75">
       <c r="B30" s="6"/>
@@ -938,21 +1100,21 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="2:7" s="11" customFormat="1" ht="15.75">
+    <row r="31" spans="2:7" ht="15.75">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.75">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="2:7" ht="15.75">
       <c r="B33" s="6"/>
@@ -962,21 +1124,21 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="2:7" ht="15.75">
+    <row r="34" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="2:7" s="11" customFormat="1" ht="15.75">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="2:7" ht="15.75">
       <c r="B36" s="6"/>
@@ -994,21 +1156,21 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="2:7" ht="15.75">
+    <row r="38" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="2:7" s="11" customFormat="1" ht="15.75">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:7" ht="15.75">
       <c r="B40" s="6"/>
@@ -1026,21 +1188,21 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="2:7" ht="15.75">
+    <row r="42" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="2:7" s="11" customFormat="1" ht="15.75">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75">
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="2:7" ht="15.75">
       <c r="B44" s="6"/>
@@ -1058,13 +1220,13 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="2:7" ht="15.75">
+    <row r="46" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="2:7" ht="15.75">
       <c r="B47" s="6"/>
@@ -1842,9 +2004,34 @@
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
+    <row r="144" spans="2:7" ht="15.75">
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+    </row>
+    <row r="145" spans="2:7" ht="15.75">
+      <c r="B145" s="6"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+    </row>
+    <row r="146" spans="2:7" ht="15.75">
+      <c r="B146" s="6"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G21 G3:G7" xr:uid="{51A800A3-F4E9-4CE1-B21E-BBB1AF42F5FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G7 G18:G24" xr:uid="{51A800A3-F4E9-4CE1-B21E-BBB1AF42F5FF}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentação/Requisitos/requisitos.xlsx
+++ b/Documentação/Requisitos/requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digital Solutions\Desktop\ShadowTech\Documentação\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75501AC-A82D-426C-9FE0-0422036D2920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53D6DB3-A3BA-4C7B-B070-C1F876AD3C6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0F20B02-A09F-4FB0-A8DF-B5AA3D8F1155}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -99,9 +99,6 @@
     <t>A aplicação deverá monitorar os processos das máquinas</t>
   </si>
   <si>
-    <t>A aplicação deverá mostrar os processor que mais consomen processamento.</t>
-  </si>
-  <si>
     <t>A aplicação deverá mostrar os processos que mais consomen banda.</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>A aplicação deverá gerar gráficos de históricos de ocorridos.</t>
   </si>
   <si>
-    <t>A aplicação deverá realizar a aquisição dos dados do banco.</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -198,13 +192,40 @@
     <t>2.5</t>
   </si>
   <si>
-    <t>2.5.1</t>
-  </si>
-  <si>
     <t>A aplicação deverá ter um sistema de alertas.</t>
   </si>
   <si>
     <t>A aplicação deverá ter um sistema de alertas de falhas nas máquinas</t>
+  </si>
+  <si>
+    <t>Não funcional</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>A aplicação deverá mostrar os processos que mais consomem recurso de hardware.</t>
+  </si>
+  <si>
+    <t>Desejável</t>
+  </si>
+  <si>
+    <t>A aplicação deverá realizar a aquisição dos dados do usuário no banco.</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>A aplicação deverá realizar a aquisição dos dados no banco para gerar os gráficos.</t>
   </si>
 </sst>
 </file>
@@ -730,11 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B6C25A-A5EC-4569-A201-62FA02B8C7B9}">
-  <dimension ref="B2:G146"/>
+  <dimension ref="B2:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -777,7 +798,9 @@
         <v>13</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7" ht="15.75">
@@ -788,9 +811,15 @@
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="27">
       <c r="B5" s="6"/>
@@ -800,9 +829,15 @@
       <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="15.75">
       <c r="B6" s="6"/>
@@ -812,9 +847,15 @@
       <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="15.75">
       <c r="B7" s="6"/>
@@ -824,9 +865,15 @@
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="25.5">
       <c r="B8" s="6"/>
@@ -834,11 +881,17 @@
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="15.75">
       <c r="B9" s="6"/>
@@ -848,9 +901,15 @@
       <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="25.5">
       <c r="B10" s="6"/>
@@ -858,11 +917,17 @@
         <v>10</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="15.75">
       <c r="B11" s="6"/>
@@ -870,23 +935,35 @@
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="15.75">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15.75">
       <c r="B13" s="6">
@@ -894,211 +971,315 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:7" ht="15.75">
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="15.75">
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="2:7" ht="15.75">
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="E17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="15.75">
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="15.75">
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="15.75">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="15.75">
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="25.5">
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="15.75">
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="25.5">
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75">
+        <v>60</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="25.5">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="15.75">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="2:7" ht="25.5">
+        <v>50</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15.75">
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75">
-      <c r="B28" s="6">
+    </row>
+    <row r="28" spans="2:7" ht="25.5">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75">
+      <c r="B29" s="6">
         <v>3</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="14" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="2:7" ht="15.75">
       <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="15.75">
       <c r="B31" s="6"/>
@@ -1108,37 +1289,37 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="2:7" s="11" customFormat="1" ht="15.75">
+    <row r="32" spans="2:7" ht="15.75">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="2:7" s="11" customFormat="1" ht="15.75">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="2:7" ht="15.75">
       <c r="B36" s="6"/>
@@ -1156,21 +1337,21 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="2:7" s="11" customFormat="1" ht="15.75">
+    <row r="38" spans="2:7" ht="15.75">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.75">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="2:7" ht="15.75">
       <c r="B40" s="6"/>
@@ -1188,21 +1369,21 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="2:7" s="11" customFormat="1" ht="15.75">
+    <row r="42" spans="2:7" ht="15.75">
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="2:7" ht="15.75">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="2:7" ht="15.75">
       <c r="B44" s="6"/>
@@ -1220,21 +1401,21 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="2:7" s="11" customFormat="1" ht="15.75">
+    <row r="46" spans="2:7" ht="15.75">
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.75">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="2:7" s="11" customFormat="1" ht="15.75">
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="2:7" ht="15.75">
       <c r="B48" s="6"/>
@@ -2028,10 +2209,18 @@
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
+    <row r="147" spans="2:7" ht="15.75">
+      <c r="B147" s="6"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G7 G18:G24" xr:uid="{51A800A3-F4E9-4CE1-B21E-BBB1AF42F5FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{51A800A3-F4E9-4CE1-B21E-BBB1AF42F5FF}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
